--- a/www/IndicatorsPerCountry/Cyprus_CopperProduction_TerritorialRef_1960_2012_CCode_196.xlsx
+++ b/www/IndicatorsPerCountry/Cyprus_CopperProduction_TerritorialRef_1960_2012_CCode_196.xlsx
@@ -99,13 +99,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Cyprus_CopperProduction_TerritorialRef_1960_2012_CCode_196.xlsx
+++ b/www/IndicatorsPerCountry/Cyprus_CopperProduction_TerritorialRef_1960_2012_CCode_196.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="60">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,37 +39,124 @@
     <t>0</t>
   </si>
   <si>
-    <t/>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1.688</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>5.197</t>
+  </si>
+  <si>
+    <t>5.176</t>
+  </si>
+  <si>
+    <t>3.695</t>
+  </si>
+  <si>
+    <t>2.552</t>
+  </si>
+  <si>
+    <t>1.24</t>
   </si>
   <si>
     <t>0.3</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>0.05</t>
   </si>
   <si>
     <t>Description</t>
@@ -184,7 +271,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1700.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -201,10 +288,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1701.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -218,10 +305,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1702.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -235,10 +322,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1703.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -252,10 +339,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1704.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -269,10 +356,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1705.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -286,10 +373,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1706.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -303,10 +390,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1707.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -320,10 +407,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1708.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -337,10 +424,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1709.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -354,10 +441,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1710.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -371,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1711.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -388,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1712.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -405,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1713.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -422,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1714.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -439,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -456,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1716.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -473,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1717.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -490,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1718.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -507,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1719.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -524,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1720.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -541,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1721.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -558,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1722.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -575,10 +662,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -592,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1724.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -609,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1725.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -643,10 +730,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1727.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -660,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1728.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -677,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1729.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -694,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -711,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1731.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -728,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1732.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -745,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1733.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -762,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1734.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -779,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1735.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -796,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1736.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -813,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1737.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -830,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1738.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -847,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1739.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -864,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1740.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -881,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1741.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -898,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1742.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -915,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1743.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -932,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1744.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -949,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1745.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -966,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1746.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -983,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1747.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1000,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1748.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -1017,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1749.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1034,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1750.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -1051,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1751.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -1068,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1752.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1085,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1753.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -1102,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1754.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -1119,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1755.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -1136,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1756.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -1153,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1757.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1170,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1758.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1187,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1759.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -1204,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1760.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -1221,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1761.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -1238,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1762.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -1255,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1763.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -1272,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1764.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -1289,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1765.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -1306,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1766.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -1323,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1767.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -1340,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1768.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -1357,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1769.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -1374,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1770.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -1391,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1771.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -1408,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1772.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -1425,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1773.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -1442,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1774.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -1459,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1775.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1476,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1776.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -1493,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1777.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -1510,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1778.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -1527,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1779.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -1544,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1780.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -1561,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1781.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -1578,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1782.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -1595,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1783.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -1612,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1784.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -1629,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1785.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -1646,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1786.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -1663,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1787.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -1680,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1788.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -1697,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1789.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -1714,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1790.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -1731,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1791.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -1748,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1792.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
@@ -1765,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1793.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
@@ -1782,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1794.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -1799,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1795.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -1816,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1796.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
@@ -1833,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1797.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
@@ -1850,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1798.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -1867,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1799.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -1884,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1800.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
@@ -1901,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1801.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -1918,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1802.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -1935,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1803.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -1952,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1804.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -1969,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1805.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -1986,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1806.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2003,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1807.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -2020,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1808.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -2037,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1809.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -2054,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1810.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
@@ -2071,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1811.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2088,7 +2175,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1812.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2105,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1813.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2122,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1814.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2139,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1815.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2156,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1816.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2173,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1817.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2190,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1818.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2207,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1819.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2224,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1820.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2241,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1821.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2258,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1822.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -2275,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1823.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2292,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1824.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -2309,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1825.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -2326,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1826.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -2343,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1827.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -2360,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1828.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -2377,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1829.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -2394,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1830.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -2411,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1831.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -2428,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1832.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -2445,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1833.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -2462,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1834.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -2479,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1835.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -2496,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1836.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -2513,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1837.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -2530,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1838.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -2547,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1839.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -2564,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1840.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -2581,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1841.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -2598,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1842.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -2615,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1843.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -2632,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1844.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -2649,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1845.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -2666,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1846.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -2683,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1847.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -2700,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1848.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -2717,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1849.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -2734,7 +2821,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1850.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -2751,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1851.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E153" t="s">
         <v>7</v>
@@ -2768,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1852.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -2785,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1853.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -2802,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1854.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -2819,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1855.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -2836,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1856.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -2853,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1857.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -2870,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1858.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -2887,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1859.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -2904,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1860.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
@@ -2921,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1861.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -2938,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1862.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
@@ -2955,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1863.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -2972,7 +3059,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1864.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -2989,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1865.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
@@ -3006,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1866.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
@@ -3023,7 +3110,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1867.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E169" t="s">
         <v>7</v>
@@ -3040,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1868.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
@@ -3057,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1869.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
@@ -3074,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1870.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
@@ -3091,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1871.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E173" t="s">
         <v>7</v>
@@ -3108,7 +3195,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1872.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -3125,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1873.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E175" t="s">
         <v>7</v>
@@ -3142,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1874.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
@@ -3159,7 +3246,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1875.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E177" t="s">
         <v>7</v>
@@ -3176,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1876.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E178" t="s">
         <v>7</v>
@@ -3193,7 +3280,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1877.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E179" t="s">
         <v>7</v>
@@ -3210,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1878.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E180" t="s">
         <v>7</v>
@@ -3227,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1879.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
@@ -3244,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1880.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -3261,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1881.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -3278,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1882.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E184" t="s">
         <v>7</v>
@@ -3295,7 +3382,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1883.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -3312,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1884.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
@@ -3329,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1885.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -3346,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1886.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
@@ -3363,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1887.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -3380,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1888.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -3397,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1889.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -3414,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1890.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E192" t="s">
         <v>7</v>
@@ -3431,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1891.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E193" t="s">
         <v>7</v>
@@ -3448,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1892.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -3465,7 +3552,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1893.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -3482,10 +3569,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1894.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -3499,10 +3586,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1895.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -3516,10 +3603,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1896.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
@@ -3533,10 +3620,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1897.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -3550,10 +3637,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1898.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -3567,10 +3654,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1899.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
@@ -3584,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1900.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -3601,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1901.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -3618,10 +3705,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1902.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
@@ -3635,10 +3722,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1903.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -3652,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1904.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
@@ -3669,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1905.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -3686,10 +3773,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1906.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
@@ -3703,10 +3790,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1907.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
@@ -3720,10 +3807,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1908.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -3737,10 +3824,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1909.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -3754,10 +3841,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1910.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -3771,10 +3858,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1911.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214">
@@ -3788,10 +3875,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1912.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
@@ -3805,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1913.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E215" t="s">
         <v>7</v>
@@ -3822,7 +3909,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1914.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E216" t="s">
         <v>7</v>
@@ -3839,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1915.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E217" t="s">
         <v>7</v>
@@ -3856,7 +3943,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1916.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E218" t="s">
         <v>7</v>
@@ -3873,10 +3960,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1917.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
@@ -3890,10 +3977,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1918.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
@@ -3907,10 +3994,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1919.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
@@ -3924,10 +4011,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1920.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
@@ -3941,10 +4028,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1921.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224">
@@ -3958,10 +4045,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1922.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
@@ -3975,10 +4062,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1923.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226">
@@ -3992,10 +4079,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1924.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227">
@@ -4009,10 +4096,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1925.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228">
@@ -4026,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1926.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229">
@@ -4043,10 +4130,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1927.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
@@ -4060,10 +4147,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1928.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231">
@@ -4077,10 +4164,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1929.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232">
@@ -4094,10 +4181,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1930.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
@@ -4111,10 +4198,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1931.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
@@ -4128,10 +4215,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1932.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235">
@@ -4145,10 +4232,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1933.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236">
@@ -4162,10 +4249,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1934.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237">
@@ -4179,10 +4266,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1935.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238">
@@ -4196,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1936.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -4213,10 +4300,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1937.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -4230,10 +4317,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1938.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241">
@@ -4247,10 +4334,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1939.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242">
@@ -4264,10 +4351,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1940.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243">
@@ -4281,10 +4368,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1941.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244">
@@ -4298,10 +4385,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1942.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -4315,10 +4402,10 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1943.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -4332,10 +4419,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1944.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -4349,10 +4436,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1945.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248">
@@ -4366,10 +4453,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1946.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
@@ -4383,10 +4470,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1947.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250">
@@ -4400,10 +4487,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251">
@@ -4417,10 +4504,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1949.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252">
@@ -4434,10 +4521,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1950.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
@@ -4451,10 +4538,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1951.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254">
@@ -4468,7 +4555,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1952.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E254" t="s">
         <v>7</v>
@@ -4485,7 +4572,7 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1953.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E255" t="s">
         <v>7</v>
@@ -4502,10 +4589,10 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1954.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
@@ -4519,10 +4606,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1955.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
@@ -4536,10 +4623,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1956.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
@@ -4553,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1957.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
@@ -4570,10 +4657,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1958.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
@@ -4587,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1959.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E261" t="s">
         <v>7</v>
@@ -4604,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1960.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E262" t="s">
         <v>7</v>
@@ -4621,10 +4708,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1961.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
@@ -4638,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1962.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E264" t="s">
         <v>7</v>
@@ -4655,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1963.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E265" t="s">
         <v>7</v>
@@ -4672,7 +4759,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1964.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E266" t="s">
         <v>7</v>
@@ -4689,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1965.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E267" t="s">
         <v>7</v>
@@ -4706,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1966.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E268" t="s">
         <v>7</v>
@@ -4723,7 +4810,7 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1967.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E269" t="s">
         <v>7</v>
@@ -4740,10 +4827,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1968.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="271">
@@ -4757,10 +4844,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1969.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="272">
@@ -4774,10 +4861,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1970.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="273">
@@ -4791,10 +4878,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1971.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274">
@@ -4808,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1972.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275">
@@ -4825,10 +4912,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1973.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="276">
@@ -4842,10 +4929,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1974.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277">
@@ -4859,10 +4946,10 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1975.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278">
@@ -4876,10 +4963,10 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1976.0</v>
+        <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279">
@@ -4893,10 +4980,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1977.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -4910,10 +4997,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1978.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -4927,10 +5014,10 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1979.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="282">
@@ -4944,10 +5031,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1980.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="283">
@@ -4961,10 +5048,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1981.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284">
@@ -4978,10 +5065,10 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1982.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="285">
@@ -4995,10 +5082,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1983.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286">
@@ -5012,485 +5099,9 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1984.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B287" t="s">
-        <v>5</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1985.0</v>
-      </c>
-      <c r="E287" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B288" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1986.0</v>
-      </c>
-      <c r="E288" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1988.0</v>
-      </c>
-      <c r="E290" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B291" t="s">
-        <v>5</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1989.0</v>
-      </c>
-      <c r="E291" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="E292" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1991.0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="E294" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B295" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="E295" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1994.0</v>
-      </c>
-      <c r="E296" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1995.0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="E298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="E300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="E301" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="E302" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B303" t="s">
-        <v>5</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="E303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="E305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B306" t="s">
-        <v>5</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2004.0</v>
-      </c>
-      <c r="E306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="E307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="E308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="E309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-      <c r="C310" t="s">
-        <v>6</v>
-      </c>
-      <c r="D310" t="n">
-        <v>2008.0</v>
-      </c>
-      <c r="E310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="E311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B312" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" t="n">
-        <v>2010.0</v>
-      </c>
-      <c r="E312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="E313" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B314" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="E314" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5509,50 +5120,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
